--- a/gis/data/CPI_NPV.xlsx
+++ b/gis/data/CPI_NPV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au687527\GitHub\GreenGDP\gis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371C0904-D67C-4312-AA6D-C2173C7F0651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6BEE2E-27BC-42A5-A797-519D71F2FF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{0BD11075-AC87-43E1-B8DC-B6AD336101C6}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{0BD11075-AC87-43E1-B8DC-B6AD336101C6}"/>
   </bookViews>
   <sheets>
     <sheet name="CPI_NPV" sheetId="10" r:id="rId1"/>
@@ -301,9 +301,8 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -328,13 +327,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -872,7 +871,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C70FF5-2AE8-414A-B011-32BA6EDEA22C}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -917,7 +919,7 @@
         <f>calculations!B6</f>
         <v>60.1</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="14">
         <f>calculations!E7</f>
         <v>73.979649648782214</v>
       </c>
@@ -935,7 +937,7 @@
         <f>calculations!B7</f>
         <v>61.7</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <f>calculations!E8</f>
         <v>73.979649648782214</v>
       </c>
@@ -953,7 +955,7 @@
         <f>calculations!B8</f>
         <v>63.2</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="14">
         <f>calculations!E9</f>
         <v>73.979649648782214</v>
       </c>
@@ -971,7 +973,7 @@
         <f>calculations!B9</f>
         <v>64.5</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <f>calculations!E10</f>
         <v>73.979649648782214</v>
       </c>
@@ -989,7 +991,7 @@
         <f>calculations!B10</f>
         <v>65.3</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="14">
         <f>calculations!E11</f>
         <v>73.979649648782214</v>
       </c>
@@ -1007,7 +1009,7 @@
         <f>calculations!B11</f>
         <v>66.599999999999994</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <f>calculations!E12</f>
         <v>73.979649648782214</v>
       </c>
@@ -1025,7 +1027,7 @@
         <f>calculations!B12</f>
         <v>68</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="14">
         <f>calculations!E13</f>
         <v>73.979649648782214</v>
       </c>
@@ -1043,7 +1045,7 @@
         <f>calculations!B13</f>
         <v>69.5</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="14">
         <f>calculations!E14</f>
         <v>73.979649648782214</v>
       </c>
@@ -1061,7 +1063,7 @@
         <f>calculations!B14</f>
         <v>71</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="14">
         <f>calculations!E15</f>
         <v>73.979649648782214</v>
       </c>
@@ -1079,7 +1081,7 @@
         <f>calculations!B15</f>
         <v>72.3</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="14">
         <f>calculations!E16</f>
         <v>23.679640284252411</v>
       </c>
@@ -1097,7 +1099,7 @@
         <f>calculations!B16</f>
         <v>74.099999999999994</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="14">
         <f>calculations!E17</f>
         <v>23.679640284252411</v>
       </c>
@@ -1115,7 +1117,7 @@
         <f>calculations!B17</f>
         <v>76.2</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="14">
         <f>calculations!E18</f>
         <v>23.679640284252411</v>
       </c>
@@ -1133,7 +1135,7 @@
         <f>calculations!B18</f>
         <v>78</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="14">
         <f>calculations!E19</f>
         <v>23.679640284252411</v>
       </c>
@@ -1151,7 +1153,7 @@
         <f>calculations!B19</f>
         <v>79.900000000000006</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="14">
         <f>calculations!E20</f>
         <v>23.679640284252411</v>
       </c>
@@ -1169,7 +1171,7 @@
         <f>calculations!B20</f>
         <v>81.599999999999994</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="14">
         <f>calculations!E21</f>
         <v>23.679640284252411</v>
       </c>
@@ -1187,7 +1189,7 @@
         <f>calculations!B21</f>
         <v>82.5</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="14">
         <f>calculations!E22</f>
         <v>23.679640284252411</v>
       </c>
@@ -1205,7 +1207,7 @@
         <f>calculations!B22</f>
         <v>84</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="14">
         <f>calculations!E23</f>
         <v>23.679640284252411</v>
       </c>
@@ -1223,7 +1225,7 @@
         <f>calculations!B23</f>
         <v>85.6</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="14">
         <f>calculations!E24</f>
         <v>23.679640284252411</v>
       </c>
@@ -1241,7 +1243,7 @@
         <f>calculations!B24</f>
         <v>87.1</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="14">
         <f>calculations!E25</f>
         <v>23.679640284252411</v>
       </c>
@@ -1259,7 +1261,7 @@
         <f>calculations!B25</f>
         <v>90.1</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="14">
         <f>calculations!E26</f>
         <v>30.534394727128134</v>
       </c>
@@ -1277,7 +1279,7 @@
         <f>calculations!B26</f>
         <v>91.2</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="14">
         <f>calculations!E27</f>
         <v>30.534394727128134</v>
       </c>
@@ -1295,7 +1297,7 @@
         <f>calculations!B27</f>
         <v>93.3</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="14">
         <f>calculations!E28</f>
         <v>30.534394727128134</v>
       </c>
@@ -1313,7 +1315,7 @@
         <f>calculations!B28</f>
         <v>95.9</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="14">
         <f>calculations!E29</f>
         <v>30.534394727128134</v>
       </c>
@@ -1331,7 +1333,7 @@
         <f>calculations!B29</f>
         <v>98.2</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="14">
         <f>calculations!E30</f>
         <v>30.534394727128134</v>
       </c>
@@ -1349,7 +1351,7 @@
         <f>calculations!B30</f>
         <v>99</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="14">
         <f>calculations!E31</f>
         <v>245.13336679760195</v>
       </c>
@@ -1367,7 +1369,7 @@
         <f>calculations!B31</f>
         <v>99.6</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="14">
         <f>calculations!E32</f>
         <v>245.13336679760195</v>
       </c>
@@ -1385,7 +1387,7 @@
         <f>calculations!B32</f>
         <v>100</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="14">
         <f>calculations!E33</f>
         <v>245.13336679760195</v>
       </c>
@@ -1403,7 +1405,7 @@
         <f>calculations!B33</f>
         <v>100.3</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="14">
         <f>calculations!E34</f>
         <v>245.13336679760195</v>
       </c>
@@ -1421,7 +1423,7 @@
         <f>calculations!B34</f>
         <v>101.4</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="14">
         <f>calculations!E35</f>
         <v>245.13336679760195</v>
       </c>
@@ -1439,7 +1441,7 @@
         <f>calculations!B35</f>
         <v>102.2</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="14">
         <f>calculations!E36</f>
         <v>245.13336679760195</v>
       </c>
@@ -1457,7 +1459,7 @@
         <f>calculations!B36</f>
         <v>103</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="14">
         <f>calculations!E37</f>
         <v>245.13336679760195</v>
       </c>
@@ -1471,12 +1473,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50846CB7-7BD6-4C04-BD98-E23C6BE026DD}">
   <dimension ref="A3:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B3" sqref="B3"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomRight" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1491,13 +1493,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
@@ -1517,635 +1519,635 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>1988</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="13">
         <v>57.4</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>1989</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>60.1</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>1990</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>61.7</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>149463</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f>(B$35/B7)*C7</f>
         <v>247570.8038897893</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="14">
         <f>E$39</f>
         <v>73.979649648782214</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>1991</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>63.2</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>156007</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <f t="shared" ref="D8:D37" si="0">(B$35/B8)*C8</f>
         <v>252277.14240506329</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="14">
         <f t="shared" ref="E8:E15" si="1">E$39</f>
         <v>73.979649648782214</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>1992</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>64.5</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>160470</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <f t="shared" si="0"/>
         <v>254264.09302325582</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="14">
         <f t="shared" si="1"/>
         <v>73.979649648782214</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>1993</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>65.3</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>165292</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <f t="shared" si="0"/>
         <v>258695.90199081166</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="14">
         <f t="shared" si="1"/>
         <v>73.979649648782214</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>1994</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>66.599999999999994</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>176252</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <f t="shared" si="0"/>
         <v>270464.78078078083</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="14">
         <f t="shared" si="1"/>
         <v>73.979649648782214</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>1995</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>68</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>184198</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <f t="shared" si="0"/>
         <v>276838.75882352941</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="14">
         <f t="shared" si="1"/>
         <v>73.979649648782214</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>1996</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>69.5</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>190928</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <f t="shared" si="0"/>
         <v>280760.31079136691</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="14">
         <f t="shared" si="1"/>
         <v>73.979649648782214</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>1997</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>71</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>198399</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <f t="shared" si="0"/>
         <v>285582.78591549298</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="14">
         <f t="shared" si="1"/>
         <v>73.979649648782214</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>1998</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>72.3</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>206911</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <f t="shared" si="0"/>
         <v>292480.00276625174</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="14">
         <f t="shared" si="1"/>
         <v>73.979649648782214</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>1999</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>74.099999999999994</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>212745</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <f t="shared" si="0"/>
         <v>293421.57894736843</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="14">
         <f>E$40</f>
         <v>23.679640284252411</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>2000</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>76.2</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>221310</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <f t="shared" si="0"/>
         <v>296822.59842519683</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="14">
         <f t="shared" ref="E17:E25" si="2">E$40</f>
         <v>23.679640284252411</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>2001</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>78</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>229086</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <f t="shared" si="0"/>
         <v>300161.40000000002</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="14">
         <f t="shared" si="2"/>
         <v>23.679640284252411</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>2002</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>79.900000000000006</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>238264</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <f t="shared" si="0"/>
         <v>304763.21401752188</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="14">
         <f t="shared" si="2"/>
         <v>23.679640284252411</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>2003</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>81.599999999999994</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>244672</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <f t="shared" si="0"/>
         <v>306439.68627450988</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="14">
         <f t="shared" si="2"/>
         <v>23.679640284252411</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>2004</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>82.5</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>258758</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <f t="shared" si="0"/>
         <v>320546.27393939393</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="14">
         <f t="shared" si="2"/>
         <v>23.679640284252411</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>2005</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>84</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>269668</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <f t="shared" si="0"/>
         <v>328096.06666666671</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="14">
         <f t="shared" si="2"/>
         <v>23.679640284252411</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>2006</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>85.6</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>280518</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <f t="shared" si="0"/>
         <v>334917.51869158883</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="14">
         <f t="shared" si="2"/>
         <v>23.679640284252411</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>2007</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>87.1</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>287613</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <f t="shared" si="0"/>
         <v>337474.7256027555</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="14">
         <f t="shared" si="2"/>
         <v>23.679640284252411</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>2008</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>90.1</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>285562</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <f t="shared" si="0"/>
         <v>323911.61376248614</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="14">
         <f t="shared" si="2"/>
         <v>23.679640284252411</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>2009</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>91.2</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>290533</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <f t="shared" si="0"/>
         <v>325575.35745614039</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="14">
         <f>E$41</f>
         <v>30.534394727128134</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>2010</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>93.3</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>316022</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <f t="shared" si="0"/>
         <v>346167.72132904612</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="14">
         <f t="shared" ref="E27:E30" si="3">E$41</f>
         <v>30.534394727128134</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>2011</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>95.9</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>322251</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <f t="shared" si="0"/>
         <v>343420.77372262772</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="14">
         <f t="shared" si="3"/>
         <v>30.534394727128134</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>2012</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>98.2</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>329803</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <f t="shared" si="0"/>
         <v>343236.93075356417</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="14">
         <f t="shared" si="3"/>
         <v>30.534394727128134</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>2013</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>99</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <v>338290</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <f t="shared" si="0"/>
         <v>349224.62626262626</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="14">
         <f t="shared" si="3"/>
         <v>30.534394727128134</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>2014</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>99.6</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>344847</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <f t="shared" si="0"/>
         <v>353849.03012048197</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="14">
         <f>E$42</f>
         <v>245.13336679760195</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>2015</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>100</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>353983</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <f t="shared" si="0"/>
         <v>361770.62599999999</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="14">
         <f t="shared" ref="E32:E37" si="4">E$42</f>
         <v>245.13336679760195</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>2016</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>100.3</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <v>358674</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <f t="shared" si="0"/>
         <v>365468.42273180466</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="14">
         <f t="shared" si="4"/>
         <v>245.13336679760195</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>2017</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>101.4</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <v>368402</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <f t="shared" si="0"/>
         <v>371308.52465483238</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="14">
         <f t="shared" si="4"/>
         <v>245.13336679760195</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>2018</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>102.2</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <v>376526</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <f t="shared" si="0"/>
         <v>376526</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="14">
         <f t="shared" si="4"/>
         <v>245.13336679760195</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>2019</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>103</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="8">
         <v>388978</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <f t="shared" si="0"/>
         <v>385956.81165048544</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="14">
         <f t="shared" si="4"/>
         <v>245.13336679760195</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>2020</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>103.4</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="8">
         <v>405297</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <f t="shared" si="0"/>
         <v>400593.35976789164</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="14">
         <f t="shared" si="4"/>
         <v>245.13336679760195</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="6">
         <f>(B37/B7)^(1/(2020-1990))-1</f>
         <v>1.7359658480863294E-2</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <f>(C37/C7)^(1/(2020-1990))-1</f>
         <v>3.3811414859707734E-2</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <f>(D37/D7)^(1/(2020-1990))-1</f>
         <v>1.617103277262899E-2</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <f>(E37/E7)^(1/(2020-1990))-1</f>
         <v>4.0741818116641682E-2</v>
       </c>
@@ -2154,34 +2156,34 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="15">
         <f>(((1+D$38)*(1+G39))^0.5)/(G39-D$38)</f>
         <v>73.979649648782214</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="12">
         <v>0.03</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E40" s="14">
+      <c r="E40" s="15">
         <f>(((1+D$38)*(1+G40))^0.5)/(G40-D$38)</f>
         <v>23.679640284252411</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="12">
         <v>0.06</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E41" s="12">
+      <c r="E41" s="2">
         <f>(((1+D$38)*(1+G41))^0.5)/(G41-D$38)</f>
         <v>30.534394727128134</v>
       </c>
@@ -2193,7 +2195,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="E42" s="12">
+      <c r="E42" s="2">
         <f>SUM(E43:E45)</f>
         <v>245.13336679760195</v>
       </c>
@@ -2202,7 +2204,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="E43" s="12">
+      <c r="E43" s="2">
         <f>((((1+D38)*(1+G43))^0.5)/(G43-D38))*(1-((1+D38)/(1+G43))^36)</f>
         <v>24.413098427325398</v>
       </c>
@@ -2214,7 +2216,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="E44" s="12">
+      <c r="E44" s="2">
         <f>+((((1+D38)*(1+G44))^0.5)/(G44-D38))*(((1+D38)/(1+G44))^36-((1+D38)/(1+G44))^71)</f>
         <v>17.141162509950192</v>
       </c>
@@ -2226,7 +2228,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="E45" s="12">
+      <c r="E45" s="2">
         <f>+((((1+D38)*(1+G45))^0.5)/(G45-D38))*(((1+D38)/(1+G45))^71)</f>
         <v>203.57910586032637</v>
       </c>
@@ -2238,19 +2240,19 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E46" s="12"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E47" s="12"/>
+      <c r="E47" s="11"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E48" s="12"/>
+      <c r="E48" s="11"/>
     </row>
     <row r="49" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E49" s="12"/>
+      <c r="E49" s="11"/>
     </row>
     <row r="50" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="G50" s="15"/>
+      <c r="G50" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/gis/data/CPI_NPV.xlsx
+++ b/gis/data/CPI_NPV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au687527\GitHub\GreenGDP\gis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6BEE2E-27BC-42A5-A797-519D71F2FF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C177C963-C962-4BFC-A92B-3FFCF80A9E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{0BD11075-AC87-43E1-B8DC-B6AD336101C6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{0BD11075-AC87-43E1-B8DC-B6AD336101C6}"/>
   </bookViews>
   <sheets>
     <sheet name="CPI_NPV" sheetId="10" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>CPI</t>
   </si>
@@ -205,14 +205,18 @@
   <si>
     <t>Sources:</t>
   </si>
+  <si>
+    <t>tilsvarende konstant r</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -301,7 +305,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -334,6 +338,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -1471,14 +1476,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50846CB7-7BD6-4C04-BD98-E23C6BE026DD}">
-  <dimension ref="A3:G50"/>
+  <dimension ref="A3:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B3" sqref="B3"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G43" sqref="G43"/>
+      <selection pane="bottomRight" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1489,7 +1494,7 @@
     <col min="4" max="4" width="41.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -2036,7 +2041,7 @@
         <v>245.13336679760195</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2016</v>
       </c>
@@ -2055,7 +2060,7 @@
         <v>245.13336679760195</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2017</v>
       </c>
@@ -2074,7 +2079,7 @@
         <v>245.13336679760195</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>2018</v>
       </c>
@@ -2093,7 +2098,7 @@
         <v>245.13336679760195</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2019</v>
       </c>
@@ -2112,7 +2117,7 @@
         <v>245.13336679760195</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2020</v>
       </c>
@@ -2131,7 +2136,7 @@
         <v>245.13336679760195</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
@@ -2155,7 +2160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="D39" s="4" t="s">
         <v>19</v>
       </c>
@@ -2170,7 +2175,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E40" s="15">
         <f>(((1+D$38)*(1+G40))^0.5)/(G40-D$38)</f>
         <v>23.679640284252411</v>
@@ -2182,7 +2187,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E41" s="2">
         <f>(((1+D$38)*(1+G41))^0.5)/(G41-D$38)</f>
         <v>30.534394727128134</v>
@@ -2194,7 +2199,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="E42" s="2">
         <f>SUM(E43:E45)</f>
         <v>245.13336679760195</v>
@@ -2203,7 +2208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="E43" s="2">
         <f>((((1+D38)*(1+G43))^0.5)/(G43-D38))*(1-((1+D38)/(1+G43))^36)</f>
         <v>24.413098427325398</v>
@@ -2215,7 +2220,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="E44" s="2">
         <f>+((((1+D38)*(1+G44))^0.5)/(G44-D38))*(((1+D38)/(1+G44))^36-((1+D38)/(1+G44))^71)</f>
         <v>17.141162509950192</v>
@@ -2227,7 +2232,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="E45" s="2">
         <f>+((((1+D38)*(1+G45))^0.5)/(G45-D38))*(((1+D38)/(1+G45))^71)</f>
         <v>203.57910586032637</v>
@@ -2239,13 +2244,22 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E46" s="11"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E46" s="2">
+        <f>(((1+D$38)*(1+G46))^0.5)/(G46-D$38)</f>
+        <v>203.5724651079156</v>
+      </c>
+      <c r="G46" s="16">
+        <v>2.1174999999999999E-2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E48" s="11"/>
     </row>
     <row r="49" spans="5:7" x14ac:dyDescent="0.35">

--- a/gis/data/CPI_NPV.xlsx
+++ b/gis/data/CPI_NPV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au687527\GitHub\GreenGDP\gis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C177C963-C962-4BFC-A92B-3FFCF80A9E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2BACE1-EBA7-425A-9E10-7CF9D04160CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{0BD11075-AC87-43E1-B8DC-B6AD336101C6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{0BD11075-AC87-43E1-B8DC-B6AD336101C6}"/>
   </bookViews>
   <sheets>
     <sheet name="CPI_NPV" sheetId="10" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>CPI</t>
   </si>
@@ -123,6 +123,21 @@
     <t>Δ (2009-2013)</t>
   </si>
   <si>
+    <t>Net Present Value factor</t>
+  </si>
+  <si>
+    <t>Mean real disposable family income 2018-prices</t>
+  </si>
+  <si>
+    <t>mean yearly growth rate in mean real disposable family income from 1990-2020</t>
+  </si>
+  <si>
+    <t>Mean nominal disposable family income</t>
+  </si>
+  <si>
+    <t>Sources:</t>
+  </si>
+  <si>
     <r>
       <t>Δ</t>
     </r>
@@ -135,7 +150,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>m</t>
+      <t>n</t>
     </r>
     <r>
       <rPr>
@@ -190,24 +205,6 @@
       <t xml:space="preserve"> (2014-2020)</t>
     </r>
   </si>
-  <si>
-    <t>Net Present Value factor</t>
-  </si>
-  <si>
-    <t>Mean real disposable family income 2018-prices</t>
-  </si>
-  <si>
-    <t>mean yearly growth rate in mean real disposable family income from 1990-2020</t>
-  </si>
-  <si>
-    <t>Mean nominal disposable family income</t>
-  </si>
-  <si>
-    <t>Sources:</t>
-  </si>
-  <si>
-    <t>tilsvarende konstant r</t>
-  </si>
 </sst>
 </file>
 
@@ -216,7 +213,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1476,14 +1473,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50846CB7-7BD6-4C04-BD98-E23C6BE026DD}">
-  <dimension ref="A3:H50"/>
+  <dimension ref="A3:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B3" sqref="B3"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E46" sqref="E46"/>
+      <selection pane="bottomRight" activeCell="E46" sqref="E46:H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1499,7 +1496,7 @@
   <sheetData>
     <row r="3" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>2</v>
@@ -1519,13 +1516,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -2041,7 +2038,7 @@
         <v>245.13336679760195</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2016</v>
       </c>
@@ -2060,7 +2057,7 @@
         <v>245.13336679760195</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2017</v>
       </c>
@@ -2079,7 +2076,7 @@
         <v>245.13336679760195</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>2018</v>
       </c>
@@ -2098,7 +2095,7 @@
         <v>245.13336679760195</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2019</v>
       </c>
@@ -2117,7 +2114,7 @@
         <v>245.13336679760195</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2020</v>
       </c>
@@ -2136,7 +2133,7 @@
         <v>245.13336679760195</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
@@ -2160,9 +2157,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="D39" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E39" s="15">
         <f>(((1+D$38)*(1+G39))^0.5)/(G39-D$38)</f>
@@ -2175,7 +2172,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E40" s="15">
         <f>(((1+D$38)*(1+G40))^0.5)/(G40-D$38)</f>
         <v>23.679640284252411</v>
@@ -2187,7 +2184,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E41" s="2">
         <f>(((1+D$38)*(1+G41))^0.5)/(G41-D$38)</f>
         <v>30.534394727128134</v>
@@ -2199,40 +2196,40 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="E42" s="2">
         <f>SUM(E43:E45)</f>
         <v>245.13336679760195</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="E43" s="2">
         <f>((((1+D38)*(1+G43))^0.5)/(G43-D38))*(1-((1+D38)/(1+G43))^36)</f>
         <v>24.413098427325398</v>
       </c>
       <c r="F43" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G43">
         <v>0.04</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="E44" s="2">
         <f>+((((1+D38)*(1+G44))^0.5)/(G44-D38))*(((1+D38)/(1+G44))^36-((1+D38)/(1+G44))^71)</f>
         <v>17.141162509950192</v>
       </c>
       <c r="F44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G44">
         <v>0.03</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="E45" s="2">
         <f>+((((1+D38)*(1+G45))^0.5)/(G45-D38))*(((1+D38)/(1+G45))^71)</f>
         <v>203.57910586032637</v>
@@ -2244,22 +2241,14 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E46" s="2">
-        <f>(((1+D$38)*(1+G46))^0.5)/(G46-D$38)</f>
-        <v>203.5724651079156</v>
-      </c>
-      <c r="G46" s="16">
-        <v>2.1174999999999999E-2</v>
-      </c>
-      <c r="H46" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E46" s="2"/>
+      <c r="G46" s="16"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E48" s="11"/>
     </row>
     <row r="49" spans="5:7" x14ac:dyDescent="0.35">

--- a/gis/data/CPI_NPV.xlsx
+++ b/gis/data/CPI_NPV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au687527\GitHub\GreenGDP\gis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2BACE1-EBA7-425A-9E10-7CF9D04160CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369D9929-4F60-4D42-868B-4FAD6BC41BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{0BD11075-AC87-43E1-B8DC-B6AD336101C6}"/>
+    <workbookView xWindow="22932" yWindow="-48" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{0BD11075-AC87-43E1-B8DC-B6AD336101C6}"/>
   </bookViews>
   <sheets>
     <sheet name="CPI_NPV" sheetId="10" r:id="rId1"/>
@@ -309,9 +309,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -336,6 +333,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -432,15 +432,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1325880</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1511300</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2540</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>425450</xdr:rowOff>
+      <xdr:rowOff>433070</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -480,7 +480,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3733800" y="7550150"/>
+          <a:off x="4968240" y="7505700"/>
           <a:ext cx="1511300" cy="425450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -575,9 +575,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -615,7 +615,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -721,7 +721,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -863,7 +863,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -878,9 +878,9 @@
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -894,7 +894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>calculations!A6</f>
         <v>1989</v>
@@ -908,7 +908,7 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>calculations!A7</f>
         <v>1990</v>
@@ -921,12 +921,12 @@
         <f>calculations!B6</f>
         <v>60.1</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <f>calculations!E7</f>
         <v>73.979649648782214</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>calculations!A8</f>
         <v>1991</v>
@@ -939,12 +939,12 @@
         <f>calculations!B7</f>
         <v>61.7</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <f>calculations!E8</f>
         <v>73.979649648782214</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>calculations!A9</f>
         <v>1992</v>
@@ -957,12 +957,12 @@
         <f>calculations!B8</f>
         <v>63.2</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <f>calculations!E9</f>
         <v>73.979649648782214</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>calculations!A10</f>
         <v>1993</v>
@@ -975,12 +975,12 @@
         <f>calculations!B9</f>
         <v>64.5</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <f>calculations!E10</f>
         <v>73.979649648782214</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>calculations!A11</f>
         <v>1994</v>
@@ -993,12 +993,12 @@
         <f>calculations!B10</f>
         <v>65.3</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <f>calculations!E11</f>
         <v>73.979649648782214</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>calculations!A12</f>
         <v>1995</v>
@@ -1011,12 +1011,12 @@
         <f>calculations!B11</f>
         <v>66.599999999999994</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <f>calculations!E12</f>
         <v>73.979649648782214</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>calculations!A13</f>
         <v>1996</v>
@@ -1029,12 +1029,12 @@
         <f>calculations!B12</f>
         <v>68</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <f>calculations!E13</f>
         <v>73.979649648782214</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>calculations!A14</f>
         <v>1997</v>
@@ -1047,12 +1047,12 @@
         <f>calculations!B13</f>
         <v>69.5</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <f>calculations!E14</f>
         <v>73.979649648782214</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>calculations!A15</f>
         <v>1998</v>
@@ -1065,12 +1065,12 @@
         <f>calculations!B14</f>
         <v>71</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <f>calculations!E15</f>
         <v>73.979649648782214</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>calculations!A16</f>
         <v>1999</v>
@@ -1083,12 +1083,12 @@
         <f>calculations!B15</f>
         <v>72.3</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <f>calculations!E16</f>
         <v>23.679640284252411</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>calculations!A17</f>
         <v>2000</v>
@@ -1101,12 +1101,12 @@
         <f>calculations!B16</f>
         <v>74.099999999999994</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <f>calculations!E17</f>
         <v>23.679640284252411</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>calculations!A18</f>
         <v>2001</v>
@@ -1119,12 +1119,12 @@
         <f>calculations!B17</f>
         <v>76.2</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <f>calculations!E18</f>
         <v>23.679640284252411</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>calculations!A19</f>
         <v>2002</v>
@@ -1137,12 +1137,12 @@
         <f>calculations!B18</f>
         <v>78</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <f>calculations!E19</f>
         <v>23.679640284252411</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>calculations!A20</f>
         <v>2003</v>
@@ -1155,12 +1155,12 @@
         <f>calculations!B19</f>
         <v>79.900000000000006</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <f>calculations!E20</f>
         <v>23.679640284252411</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <f>calculations!A21</f>
         <v>2004</v>
@@ -1173,12 +1173,12 @@
         <f>calculations!B20</f>
         <v>81.599999999999994</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <f>calculations!E21</f>
         <v>23.679640284252411</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <f>calculations!A22</f>
         <v>2005</v>
@@ -1191,12 +1191,12 @@
         <f>calculations!B21</f>
         <v>82.5</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <f>calculations!E22</f>
         <v>23.679640284252411</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <f>calculations!A23</f>
         <v>2006</v>
@@ -1209,12 +1209,12 @@
         <f>calculations!B22</f>
         <v>84</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <f>calculations!E23</f>
         <v>23.679640284252411</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <f>calculations!A24</f>
         <v>2007</v>
@@ -1227,12 +1227,12 @@
         <f>calculations!B23</f>
         <v>85.6</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <f>calculations!E24</f>
         <v>23.679640284252411</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <f>calculations!A25</f>
         <v>2008</v>
@@ -1245,12 +1245,12 @@
         <f>calculations!B24</f>
         <v>87.1</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="13">
         <f>calculations!E25</f>
         <v>23.679640284252411</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <f>calculations!A26</f>
         <v>2009</v>
@@ -1263,12 +1263,12 @@
         <f>calculations!B25</f>
         <v>90.1</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="13">
         <f>calculations!E26</f>
         <v>30.534394727128134</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>calculations!A27</f>
         <v>2010</v>
@@ -1281,12 +1281,12 @@
         <f>calculations!B26</f>
         <v>91.2</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <f>calculations!E27</f>
         <v>30.534394727128134</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <f>calculations!A28</f>
         <v>2011</v>
@@ -1299,12 +1299,12 @@
         <f>calculations!B27</f>
         <v>93.3</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="13">
         <f>calculations!E28</f>
         <v>30.534394727128134</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <f>calculations!A29</f>
         <v>2012</v>
@@ -1317,12 +1317,12 @@
         <f>calculations!B28</f>
         <v>95.9</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="13">
         <f>calculations!E29</f>
         <v>30.534394727128134</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <f>calculations!A30</f>
         <v>2013</v>
@@ -1335,12 +1335,12 @@
         <f>calculations!B29</f>
         <v>98.2</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="13">
         <f>calculations!E30</f>
         <v>30.534394727128134</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <f>calculations!A31</f>
         <v>2014</v>
@@ -1353,12 +1353,12 @@
         <f>calculations!B30</f>
         <v>99</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="13">
         <f>calculations!E31</f>
-        <v>245.13336679760195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>109.19848986571694</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <f>calculations!A32</f>
         <v>2015</v>
@@ -1371,12 +1371,12 @@
         <f>calculations!B31</f>
         <v>99.6</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="13">
         <f>calculations!E32</f>
-        <v>245.13336679760195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>109.19848986571694</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <f>calculations!A33</f>
         <v>2016</v>
@@ -1389,12 +1389,12 @@
         <f>calculations!B32</f>
         <v>100</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="13">
         <f>calculations!E33</f>
-        <v>245.13336679760195</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>109.19848986571694</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <f>calculations!A34</f>
         <v>2017</v>
@@ -1407,12 +1407,12 @@
         <f>calculations!B33</f>
         <v>100.3</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="13">
         <f>calculations!E34</f>
-        <v>245.13336679760195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>109.19848986571694</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <f>calculations!A35</f>
         <v>2018</v>
@@ -1425,12 +1425,12 @@
         <f>calculations!B34</f>
         <v>101.4</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="13">
         <f>calculations!E35</f>
-        <v>245.13336679760195</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>109.19848986571694</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <f>calculations!A36</f>
         <v>2019</v>
@@ -1443,12 +1443,12 @@
         <f>calculations!B35</f>
         <v>102.2</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="13">
         <f>calculations!E36</f>
-        <v>245.13336679760195</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>109.19848986571694</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <f>calculations!A37</f>
         <v>2020</v>
@@ -1461,9 +1461,9 @@
         <f>calculations!B36</f>
         <v>103</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="13">
         <f>calculations!E37</f>
-        <v>245.13336679760195</v>
+        <v>109.19848986571694</v>
       </c>
     </row>
   </sheetData>
@@ -1476,39 +1476,39 @@
   <dimension ref="A3:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B3" sqref="B3"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E46" sqref="E46:H46"/>
+      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" customWidth="1"/>
-    <col min="3" max="3" width="34.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1521,670 +1521,670 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1988</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>57.4</v>
       </c>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1989</v>
       </c>
       <c r="B6" s="2">
         <v>60.1</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C6" s="7"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1990</v>
       </c>
       <c r="B7" s="2">
         <v>61.7</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>149463</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f>(B$35/B7)*C7</f>
         <v>247570.8038897893</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <f>E$39</f>
         <v>73.979649648782214</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1991</v>
       </c>
       <c r="B8" s="2">
         <v>63.2</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>156007</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f t="shared" ref="D8:D37" si="0">(B$35/B8)*C8</f>
         <v>252277.14240506329</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <f t="shared" ref="E8:E15" si="1">E$39</f>
         <v>73.979649648782214</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1992</v>
       </c>
       <c r="B9" s="2">
         <v>64.5</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>160470</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
         <v>254264.09302325582</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <f t="shared" si="1"/>
         <v>73.979649648782214</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1993</v>
       </c>
       <c r="B10" s="2">
         <v>65.3</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>165292</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
         <v>258695.90199081166</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <f t="shared" si="1"/>
         <v>73.979649648782214</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1994</v>
       </c>
       <c r="B11" s="2">
         <v>66.599999999999994</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>176252</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
         <v>270464.78078078083</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <f t="shared" si="1"/>
         <v>73.979649648782214</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1995</v>
       </c>
       <c r="B12" s="2">
         <v>68</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>184198</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <f t="shared" si="0"/>
         <v>276838.75882352941</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <f t="shared" si="1"/>
         <v>73.979649648782214</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1996</v>
       </c>
       <c r="B13" s="2">
         <v>69.5</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>190928</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <f t="shared" si="0"/>
         <v>280760.31079136691</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <f t="shared" si="1"/>
         <v>73.979649648782214</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1997</v>
       </c>
       <c r="B14" s="2">
         <v>71</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>198399</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <f t="shared" si="0"/>
         <v>285582.78591549298</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <f t="shared" si="1"/>
         <v>73.979649648782214</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1998</v>
       </c>
       <c r="B15" s="2">
         <v>72.3</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>206911</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <f t="shared" si="0"/>
         <v>292480.00276625174</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <f t="shared" si="1"/>
         <v>73.979649648782214</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1999</v>
       </c>
       <c r="B16" s="2">
         <v>74.099999999999994</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>212745</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <f t="shared" si="0"/>
         <v>293421.57894736843</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <f>E$40</f>
         <v>23.679640284252411</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2000</v>
       </c>
       <c r="B17" s="2">
         <v>76.2</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>221310</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <f t="shared" si="0"/>
         <v>296822.59842519683</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <f t="shared" ref="E17:E25" si="2">E$40</f>
         <v>23.679640284252411</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2001</v>
       </c>
       <c r="B18" s="2">
         <v>78</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>229086</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <f t="shared" si="0"/>
         <v>300161.40000000002</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <f t="shared" si="2"/>
         <v>23.679640284252411</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2002</v>
       </c>
       <c r="B19" s="2">
         <v>79.900000000000006</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>238264</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <f t="shared" si="0"/>
         <v>304763.21401752188</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="13">
         <f t="shared" si="2"/>
         <v>23.679640284252411</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2003</v>
       </c>
       <c r="B20" s="2">
         <v>81.599999999999994</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>244672</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <f t="shared" si="0"/>
         <v>306439.68627450988</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <f t="shared" si="2"/>
         <v>23.679640284252411</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2004</v>
       </c>
       <c r="B21" s="2">
         <v>82.5</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>258758</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <f t="shared" si="0"/>
         <v>320546.27393939393</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13">
         <f t="shared" si="2"/>
         <v>23.679640284252411</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2005</v>
       </c>
       <c r="B22" s="2">
         <v>84</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>269668</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <f t="shared" si="0"/>
         <v>328096.06666666671</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="13">
         <f t="shared" si="2"/>
         <v>23.679640284252411</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2006</v>
       </c>
       <c r="B23" s="2">
         <v>85.6</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>280518</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <f t="shared" si="0"/>
         <v>334917.51869158883</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="13">
         <f t="shared" si="2"/>
         <v>23.679640284252411</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2007</v>
       </c>
       <c r="B24" s="2">
         <v>87.1</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>287613</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <f t="shared" si="0"/>
         <v>337474.7256027555</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="13">
         <f t="shared" si="2"/>
         <v>23.679640284252411</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2008</v>
       </c>
       <c r="B25" s="2">
         <v>90.1</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>285562</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <f t="shared" si="0"/>
         <v>323911.61376248614</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="13">
         <f t="shared" si="2"/>
         <v>23.679640284252411</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2009</v>
       </c>
       <c r="B26" s="2">
         <v>91.2</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>290533</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <f t="shared" si="0"/>
         <v>325575.35745614039</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="13">
         <f>E$41</f>
         <v>30.534394727128134</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2010</v>
       </c>
       <c r="B27" s="2">
         <v>93.3</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>316022</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <f t="shared" si="0"/>
         <v>346167.72132904612</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="13">
         <f t="shared" ref="E27:E30" si="3">E$41</f>
         <v>30.534394727128134</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2011</v>
       </c>
       <c r="B28" s="2">
         <v>95.9</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>322251</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <f t="shared" si="0"/>
         <v>343420.77372262772</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="13">
         <f t="shared" si="3"/>
         <v>30.534394727128134</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2012</v>
       </c>
       <c r="B29" s="2">
         <v>98.2</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>329803</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <f t="shared" si="0"/>
         <v>343236.93075356417</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="13">
         <f t="shared" si="3"/>
         <v>30.534394727128134</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2013</v>
       </c>
       <c r="B30" s="2">
         <v>99</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>338290</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <f t="shared" si="0"/>
         <v>349224.62626262626</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="13">
         <f t="shared" si="3"/>
         <v>30.534394727128134</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2014</v>
       </c>
       <c r="B31" s="2">
         <v>99.6</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>344847</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <f t="shared" si="0"/>
         <v>353849.03012048197</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="13">
         <f>E$42</f>
-        <v>245.13336679760195</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+        <v>109.19848986571694</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2015</v>
       </c>
       <c r="B32" s="2">
         <v>100</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>353983</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <f t="shared" si="0"/>
         <v>361770.62599999999</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="13">
         <f t="shared" ref="E32:E37" si="4">E$42</f>
-        <v>245.13336679760195</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+        <v>109.19848986571694</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2016</v>
       </c>
       <c r="B33" s="2">
         <v>100.3</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>358674</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <f t="shared" si="0"/>
         <v>365468.42273180466</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="13">
         <f t="shared" si="4"/>
-        <v>245.13336679760195</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+        <v>109.19848986571694</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2017</v>
       </c>
       <c r="B34" s="2">
         <v>101.4</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>368402</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <f t="shared" si="0"/>
         <v>371308.52465483238</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="13">
         <f t="shared" si="4"/>
-        <v>245.13336679760195</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <v>109.19848986571694</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2018</v>
       </c>
       <c r="B35" s="2">
         <v>102.2</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>376526</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <f t="shared" si="0"/>
         <v>376526</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="13">
         <f t="shared" si="4"/>
-        <v>245.13336679760195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <v>109.19848986571694</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2019</v>
       </c>
       <c r="B36" s="2">
         <v>103</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>388978</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <f t="shared" si="0"/>
         <v>385956.81165048544</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="13">
         <f t="shared" si="4"/>
-        <v>245.13336679760195</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+        <v>109.19848986571694</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2020</v>
       </c>
       <c r="B37" s="2">
         <v>103.4</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>405297</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <f t="shared" si="0"/>
         <v>400593.35976789164</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="13">
         <f t="shared" si="4"/>
-        <v>245.13336679760195</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+        <v>109.19848986571694</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <f>(B37/B7)^(1/(2020-1990))-1</f>
         <v>1.7359658480863294E-2</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <f>(C37/C7)^(1/(2020-1990))-1</f>
         <v>3.3811414859707734E-2</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <f>(D37/D7)^(1/(2020-1990))-1</f>
         <v>1.617103277262899E-2</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <f>(E37/E7)^(1/(2020-1990))-1</f>
-        <v>4.0741818116641682E-2</v>
+        <v>1.3063835379402366E-2</v>
       </c>
       <c r="G38" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="D39" s="4" t="s">
+    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D39" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="14">
         <f>(((1+D$38)*(1+G39))^0.5)/(G39-D$38)</f>
         <v>73.979649648782214</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="11">
         <v>0.03</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E40" s="15">
+    <row r="40" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="14">
         <f>(((1+D$38)*(1+G40))^0.5)/(G40-D$38)</f>
         <v>23.679640284252411</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="11">
         <v>0.06</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E41" s="2">
         <f>(((1+D$38)*(1+G41))^0.5)/(G41-D$38)</f>
         <v>30.534394727128134</v>
@@ -2196,18 +2196,18 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E42" s="2">
-        <f>SUM(E43:E45)</f>
-        <v>245.13336679760195</v>
+        <f>E43+((1+D$38)/(1+G43))^35.5*E44+((1+D$38)/(1+G43))^35.5*((1+D$38)/(1+G44))^35.5*E45</f>
+        <v>109.19848986571694</v>
       </c>
       <c r="F42" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E43" s="2">
-        <f>((((1+D38)*(1+G43))^0.5)/(G43-D38))*(1-((1+D38)/(1+G43))^36)</f>
+        <f>((((1+D$38)*(1+G43))^0.5)/(G43-D$38))*(1-((1+D$38)/(1+G43))^36)</f>
         <v>24.413098427325398</v>
       </c>
       <c r="F43" t="s">
@@ -2217,10 +2217,10 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E44" s="2">
-        <f>+((((1+D38)*(1+G44))^0.5)/(G44-D38))*(((1+D38)/(1+G44))^36-((1+D38)/(1+G44))^71)</f>
-        <v>17.141162509950192</v>
+        <f>((((1+D$38)*(1+G44))^0.5)/(G44-D$38))*(1-((1+D$38)/(1+G44))^36)</f>
+        <v>28.504162086514651</v>
       </c>
       <c r="F44" t="s">
         <v>4</v>
@@ -2229,10 +2229,10 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E45" s="2">
-        <f>+((((1+D38)*(1+G45))^0.5)/(G45-D38))*(((1+D38)/(1+G45))^71)</f>
-        <v>203.57910586032637</v>
+        <f>((((1+D$38)*(1+G45))^0.5)/(G45-D$38))</f>
+        <v>265.88990081671744</v>
       </c>
       <c r="F45" t="s">
         <v>6</v>
@@ -2241,21 +2241,21 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E46" s="2"/>
-      <c r="G46" s="16"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E47" s="11"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E48" s="11"/>
-    </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E49" s="11"/>
-    </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="G50" s="13"/>
+      <c r="G46" s="15"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="G50" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/gis/data/CPI_NPV.xlsx
+++ b/gis/data/CPI_NPV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au687527\GitHub\GreenGDP\gis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369D9929-4F60-4D42-868B-4FAD6BC41BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E4051D-8B1E-474F-A5E4-24D809B17FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-48" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{0BD11075-AC87-43E1-B8DC-B6AD336101C6}"/>
+    <workbookView xWindow="570" yWindow="0" windowWidth="18630" windowHeight="10080" activeTab="1" xr2:uid="{0BD11075-AC87-43E1-B8DC-B6AD336101C6}"/>
   </bookViews>
   <sheets>
     <sheet name="CPI_NPV" sheetId="10" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>CPI</t>
   </si>
@@ -46,54 +46,6 @@
   </si>
   <si>
     <t>INDKF132</t>
-  </si>
-  <si>
-    <r>
-      <t>Δ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Δ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Δ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>l</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -114,15 +66,6 @@
     <t>r</t>
   </si>
   <si>
-    <t>Δ (1990-1998)</t>
-  </si>
-  <si>
-    <t>Δ (1999-2008)</t>
-  </si>
-  <si>
-    <t>Δ (2009-2013)</t>
-  </si>
-  <si>
     <t>Net Present Value factor</t>
   </si>
   <si>
@@ -138,8 +81,11 @@
     <t>Sources:</t>
   </si>
   <si>
+    <t>NPV t-1</t>
+  </si>
+  <si>
     <r>
-      <t>Δ</t>
+      <t>NV(Δ</t>
     </r>
     <r>
       <rPr>
@@ -160,7 +106,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>+Δ</t>
+      <t>,Δ</t>
     </r>
     <r>
       <rPr>
@@ -181,7 +127,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>+Δ</t>
+      <t>,Δ</t>
     </r>
     <r>
       <rPr>
@@ -202,7 +148,113 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (2014-2020)</t>
+      <t>) 2014-2020</t>
+    </r>
+  </si>
+  <si>
+    <t>Δ 2009-2013</t>
+  </si>
+  <si>
+    <t>Δ 1999-2008</t>
+  </si>
+  <si>
+    <t>Δ 1990-1998</t>
+  </si>
+  <si>
+    <r>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>near</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (years 1-35)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>medium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (years 36-70)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>long</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (years 71-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>∞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
     </r>
   </si>
 </sst>
@@ -210,10 +262,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -302,7 +355,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -329,12 +382,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -433,13 +490,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1325880</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2540</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>433070</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -871,599 +928,712 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C70FF5-2AE8-414A-B011-32BA6EDEA22C}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>calculations!A6</f>
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B2">
         <f>calculations!B6</f>
-        <v>60.1</v>
+        <v>61.7</v>
       </c>
       <c r="C2">
         <f>calculations!B5</f>
-        <v>57.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60.1</v>
+      </c>
+      <c r="D2" s="13">
+        <f>calculations!E6</f>
+        <v>73.979649648782214</v>
+      </c>
+      <c r="E2" s="13">
+        <f>calculations!E5</f>
+        <v>73.979649648782214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>calculations!A7</f>
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B3">
         <f>calculations!B7</f>
-        <v>61.7</v>
+        <v>63.2</v>
       </c>
       <c r="C3">
         <f>calculations!B6</f>
-        <v>60.1</v>
+        <v>61.7</v>
       </c>
       <c r="D3" s="13">
         <f>calculations!E7</f>
         <v>73.979649648782214</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="13">
+        <f>calculations!E6</f>
+        <v>73.979649648782214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>calculations!A8</f>
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B4">
         <f>calculations!B8</f>
-        <v>63.2</v>
+        <v>64.5</v>
       </c>
       <c r="C4">
         <f>calculations!B7</f>
-        <v>61.7</v>
+        <v>63.2</v>
       </c>
       <c r="D4" s="13">
         <f>calculations!E8</f>
         <v>73.979649648782214</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="13">
+        <f>calculations!E7</f>
+        <v>73.979649648782214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>calculations!A9</f>
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B5">
         <f>calculations!B9</f>
-        <v>64.5</v>
+        <v>65.3</v>
       </c>
       <c r="C5">
         <f>calculations!B8</f>
-        <v>63.2</v>
+        <v>64.5</v>
       </c>
       <c r="D5" s="13">
         <f>calculations!E9</f>
         <v>73.979649648782214</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="13">
+        <f>calculations!E8</f>
+        <v>73.979649648782214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>calculations!A10</f>
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B6">
         <f>calculations!B10</f>
-        <v>65.3</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="C6">
         <f>calculations!B9</f>
-        <v>64.5</v>
+        <v>65.3</v>
       </c>
       <c r="D6" s="13">
         <f>calculations!E10</f>
         <v>73.979649648782214</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="13">
+        <f>calculations!E9</f>
+        <v>73.979649648782214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <f>calculations!A11</f>
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B7">
         <f>calculations!B11</f>
-        <v>66.599999999999994</v>
+        <v>68</v>
       </c>
       <c r="C7">
         <f>calculations!B10</f>
-        <v>65.3</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="D7" s="13">
         <f>calculations!E11</f>
         <v>73.979649648782214</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="13">
+        <f>calculations!E10</f>
+        <v>73.979649648782214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <f>calculations!A12</f>
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B8">
         <f>calculations!B12</f>
-        <v>68</v>
+        <v>69.5</v>
       </c>
       <c r="C8">
         <f>calculations!B11</f>
-        <v>66.599999999999994</v>
+        <v>68</v>
       </c>
       <c r="D8" s="13">
         <f>calculations!E12</f>
         <v>73.979649648782214</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="13">
+        <f>calculations!E11</f>
+        <v>73.979649648782214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <f>calculations!A13</f>
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B9">
         <f>calculations!B13</f>
-        <v>69.5</v>
+        <v>71</v>
       </c>
       <c r="C9">
         <f>calculations!B12</f>
-        <v>68</v>
+        <v>69.5</v>
       </c>
       <c r="D9" s="13">
         <f>calculations!E13</f>
         <v>73.979649648782214</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="13">
+        <f>calculations!E12</f>
+        <v>73.979649648782214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <f>calculations!A14</f>
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B10">
         <f>calculations!B14</f>
-        <v>71</v>
+        <v>72.3</v>
       </c>
       <c r="C10">
         <f>calculations!B13</f>
-        <v>69.5</v>
+        <v>71</v>
       </c>
       <c r="D10" s="13">
         <f>calculations!E14</f>
         <v>73.979649648782214</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="13">
+        <f>calculations!E13</f>
+        <v>73.979649648782214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <f>calculations!A15</f>
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B11">
         <f>calculations!B15</f>
-        <v>72.3</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="C11">
         <f>calculations!B14</f>
-        <v>71</v>
+        <v>72.3</v>
       </c>
       <c r="D11" s="13">
         <f>calculations!E15</f>
-        <v>73.979649648782214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23.679640284252411</v>
+      </c>
+      <c r="E11" s="13">
+        <f>calculations!E14</f>
+        <v>73.979649648782214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <f>calculations!A16</f>
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B12">
         <f>calculations!B16</f>
-        <v>74.099999999999994</v>
+        <v>76.2</v>
       </c>
       <c r="C12">
         <f>calculations!B15</f>
-        <v>72.3</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="D12" s="13">
         <f>calculations!E16</f>
         <v>23.679640284252411</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="13">
+        <f>calculations!E15</f>
+        <v>23.679640284252411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <f>calculations!A17</f>
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B13">
         <f>calculations!B17</f>
-        <v>76.2</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <f>calculations!B16</f>
-        <v>74.099999999999994</v>
+        <v>76.2</v>
       </c>
       <c r="D13" s="13">
         <f>calculations!E17</f>
         <v>23.679640284252411</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="13">
+        <f>calculations!E16</f>
+        <v>23.679640284252411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <f>calculations!A18</f>
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B14">
         <f>calculations!B18</f>
-        <v>78</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="C14">
         <f>calculations!B17</f>
-        <v>76.2</v>
+        <v>78</v>
       </c>
       <c r="D14" s="13">
         <f>calculations!E18</f>
         <v>23.679640284252411</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="13">
+        <f>calculations!E17</f>
+        <v>23.679640284252411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <f>calculations!A19</f>
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B15">
         <f>calculations!B19</f>
-        <v>79.900000000000006</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="C15">
         <f>calculations!B18</f>
-        <v>78</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="D15" s="13">
         <f>calculations!E19</f>
         <v>23.679640284252411</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="13">
+        <f>calculations!E18</f>
+        <v>23.679640284252411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <f>calculations!A20</f>
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B16">
         <f>calculations!B20</f>
-        <v>81.599999999999994</v>
+        <v>82.5</v>
       </c>
       <c r="C16">
         <f>calculations!B19</f>
-        <v>79.900000000000006</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="D16" s="13">
         <f>calculations!E20</f>
         <v>23.679640284252411</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="13">
+        <f>calculations!E19</f>
+        <v>23.679640284252411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <f>calculations!A21</f>
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B17">
         <f>calculations!B21</f>
-        <v>82.5</v>
+        <v>84</v>
       </c>
       <c r="C17">
         <f>calculations!B20</f>
-        <v>81.599999999999994</v>
+        <v>82.5</v>
       </c>
       <c r="D17" s="13">
         <f>calculations!E21</f>
         <v>23.679640284252411</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="13">
+        <f>calculations!E20</f>
+        <v>23.679640284252411</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <f>calculations!A22</f>
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B18">
         <f>calculations!B22</f>
-        <v>84</v>
+        <v>85.6</v>
       </c>
       <c r="C18">
         <f>calculations!B21</f>
-        <v>82.5</v>
+        <v>84</v>
       </c>
       <c r="D18" s="13">
         <f>calculations!E22</f>
         <v>23.679640284252411</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="13">
+        <f>calculations!E21</f>
+        <v>23.679640284252411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <f>calculations!A23</f>
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B19">
         <f>calculations!B23</f>
-        <v>85.6</v>
+        <v>87.1</v>
       </c>
       <c r="C19">
         <f>calculations!B22</f>
-        <v>84</v>
+        <v>85.6</v>
       </c>
       <c r="D19" s="13">
         <f>calculations!E23</f>
         <v>23.679640284252411</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="13">
+        <f>calculations!E22</f>
+        <v>23.679640284252411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <f>calculations!A24</f>
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B20">
         <f>calculations!B24</f>
-        <v>87.1</v>
+        <v>90.1</v>
       </c>
       <c r="C20">
         <f>calculations!B23</f>
-        <v>85.6</v>
+        <v>87.1</v>
       </c>
       <c r="D20" s="13">
         <f>calculations!E24</f>
         <v>23.679640284252411</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="13">
+        <f>calculations!E23</f>
+        <v>23.679640284252411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <f>calculations!A25</f>
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B21">
         <f>calculations!B25</f>
-        <v>90.1</v>
+        <v>91.2</v>
       </c>
       <c r="C21">
         <f>calculations!B24</f>
-        <v>87.1</v>
+        <v>90.1</v>
       </c>
       <c r="D21" s="13">
         <f>calculations!E25</f>
-        <v>23.679640284252411</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30.534394727128134</v>
+      </c>
+      <c r="E21" s="13">
+        <f>calculations!E24</f>
+        <v>23.679640284252411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <f>calculations!A26</f>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B22">
         <f>calculations!B26</f>
-        <v>91.2</v>
+        <v>93.3</v>
       </c>
       <c r="C22">
         <f>calculations!B25</f>
-        <v>90.1</v>
+        <v>91.2</v>
       </c>
       <c r="D22" s="13">
         <f>calculations!E26</f>
         <v>30.534394727128134</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="13">
+        <f>calculations!E25</f>
+        <v>30.534394727128134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <f>calculations!A27</f>
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B23">
         <f>calculations!B27</f>
-        <v>93.3</v>
+        <v>95.9</v>
       </c>
       <c r="C23">
         <f>calculations!B26</f>
-        <v>91.2</v>
+        <v>93.3</v>
       </c>
       <c r="D23" s="13">
         <f>calculations!E27</f>
         <v>30.534394727128134</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="13">
+        <f>calculations!E26</f>
+        <v>30.534394727128134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <f>calculations!A28</f>
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B24">
         <f>calculations!B28</f>
-        <v>95.9</v>
+        <v>98.2</v>
       </c>
       <c r="C24">
         <f>calculations!B27</f>
-        <v>93.3</v>
+        <v>95.9</v>
       </c>
       <c r="D24" s="13">
         <f>calculations!E28</f>
         <v>30.534394727128134</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="13">
+        <f>calculations!E27</f>
+        <v>30.534394727128134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <f>calculations!A29</f>
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B25">
         <f>calculations!B29</f>
-        <v>98.2</v>
+        <v>99</v>
       </c>
       <c r="C25">
         <f>calculations!B28</f>
-        <v>95.9</v>
+        <v>98.2</v>
       </c>
       <c r="D25" s="13">
         <f>calculations!E29</f>
         <v>30.534394727128134</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" s="13">
+        <f>calculations!E28</f>
+        <v>30.534394727128134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <f>calculations!A30</f>
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B26">
         <f>calculations!B30</f>
-        <v>99</v>
+        <v>99.6</v>
       </c>
       <c r="C26">
         <f>calculations!B29</f>
-        <v>98.2</v>
+        <v>99</v>
       </c>
       <c r="D26" s="13">
         <f>calculations!E30</f>
+        <v>110.74659345182863</v>
+      </c>
+      <c r="E26" s="13">
+        <f>calculations!E29</f>
         <v>30.534394727128134</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <f>calculations!A31</f>
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B27">
         <f>calculations!B31</f>
-        <v>99.6</v>
+        <v>100</v>
       </c>
       <c r="C27">
         <f>calculations!B30</f>
-        <v>99</v>
+        <v>99.6</v>
       </c>
       <c r="D27" s="13">
         <f>calculations!E31</f>
-        <v>109.19848986571694</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>110.74659345182863</v>
+      </c>
+      <c r="E27" s="13">
+        <f>calculations!E30</f>
+        <v>110.74659345182863</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <f>calculations!A32</f>
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B28">
         <f>calculations!B32</f>
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="C28">
         <f>calculations!B31</f>
-        <v>99.6</v>
+        <v>100</v>
       </c>
       <c r="D28" s="13">
         <f>calculations!E32</f>
-        <v>109.19848986571694</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>110.74659345182863</v>
+      </c>
+      <c r="E28" s="13">
+        <f>calculations!E31</f>
+        <v>110.74659345182863</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <f>calculations!A33</f>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B29">
         <f>calculations!B33</f>
-        <v>100.3</v>
+        <v>101.4</v>
       </c>
       <c r="C29">
         <f>calculations!B32</f>
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="D29" s="13">
         <f>calculations!E33</f>
-        <v>109.19848986571694</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>110.74659345182863</v>
+      </c>
+      <c r="E29" s="13">
+        <f>calculations!E32</f>
+        <v>110.74659345182863</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <f>calculations!A34</f>
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B30">
         <f>calculations!B34</f>
-        <v>101.4</v>
+        <v>102.2</v>
       </c>
       <c r="C30">
         <f>calculations!B33</f>
-        <v>100.3</v>
+        <v>101.4</v>
       </c>
       <c r="D30" s="13">
         <f>calculations!E34</f>
-        <v>109.19848986571694</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>110.74659345182863</v>
+      </c>
+      <c r="E30" s="13">
+        <f>calculations!E33</f>
+        <v>110.74659345182863</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <f>calculations!A35</f>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B31">
         <f>calculations!B35</f>
-        <v>102.2</v>
+        <v>103</v>
       </c>
       <c r="C31">
         <f>calculations!B34</f>
-        <v>101.4</v>
+        <v>102.2</v>
       </c>
       <c r="D31" s="13">
         <f>calculations!E35</f>
-        <v>109.19848986571694</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>110.74659345182863</v>
+      </c>
+      <c r="E31" s="13">
+        <f>calculations!E34</f>
+        <v>110.74659345182863</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <f>calculations!A36</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B32">
         <f>calculations!B36</f>
-        <v>103</v>
+        <v>103.4</v>
       </c>
       <c r="C32">
         <f>calculations!B35</f>
-        <v>102.2</v>
+        <v>103</v>
       </c>
       <c r="D32" s="13">
         <f>calculations!E36</f>
-        <v>109.19848986571694</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <f>calculations!A37</f>
-        <v>2020</v>
-      </c>
-      <c r="B33">
-        <f>calculations!B37</f>
-        <v>103.4</v>
-      </c>
-      <c r="C33">
-        <f>calculations!B36</f>
-        <v>103</v>
-      </c>
-      <c r="D33" s="13">
-        <f>calculations!E37</f>
-        <v>109.19848986571694</v>
+        <v>110.74659345182863</v>
+      </c>
+      <c r="E32" s="13">
+        <f>calculations!E35</f>
+        <v>110.74659345182863</v>
       </c>
     </row>
   </sheetData>
@@ -1473,30 +1643,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50846CB7-7BD6-4C04-BD98-E23C6BE026DD}">
-  <dimension ref="A3:G50"/>
+  <dimension ref="A3:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B3" sqref="B3"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" customWidth="1"/>
-    <col min="3" max="3" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" customWidth="1"/>
+    <col min="3" max="3" width="34.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>2</v>
@@ -1505,757 +1675,755 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>1988</v>
-      </c>
-      <c r="B5" s="12">
-        <v>57.4</v>
-      </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1989</v>
+      </c>
+      <c r="B5" s="2">
+        <v>60.1</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="13">
+        <f>E$38</f>
+        <v>73.979649648782214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B6" s="2">
-        <v>60.1</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>61.7</v>
+      </c>
+      <c r="C6" s="7">
+        <v>149463</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" ref="D6:D36" si="0">(B$34/B6)*C6</f>
+        <v>247570.8038897893</v>
+      </c>
+      <c r="E6" s="13">
+        <f>E$38</f>
+        <v>73.979649648782214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B7" s="2">
-        <v>61.7</v>
+        <v>63.2</v>
       </c>
       <c r="C7" s="7">
-        <v>149463</v>
+        <v>156007</v>
       </c>
       <c r="D7" s="4">
-        <f>(B$35/B7)*C7</f>
-        <v>247570.8038897893</v>
+        <f t="shared" si="0"/>
+        <v>252277.14240506329</v>
       </c>
       <c r="E7" s="13">
-        <f>E$39</f>
-        <v>73.979649648782214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E7:E14" si="1">E$38</f>
+        <v>73.979649648782214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B8" s="2">
-        <v>63.2</v>
+        <v>64.5</v>
       </c>
       <c r="C8" s="7">
-        <v>156007</v>
+        <v>160470</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" ref="D8:D37" si="0">(B$35/B8)*C8</f>
-        <v>252277.14240506329</v>
+        <f t="shared" si="0"/>
+        <v>254264.09302325582</v>
       </c>
       <c r="E8" s="13">
-        <f t="shared" ref="E8:E15" si="1">E$39</f>
-        <v>73.979649648782214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>73.979649648782214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B9" s="2">
-        <v>64.5</v>
+        <v>65.3</v>
       </c>
       <c r="C9" s="7">
-        <v>160470</v>
+        <v>165292</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>254264.09302325582</v>
+        <v>258695.90199081166</v>
       </c>
       <c r="E9" s="13">
         <f t="shared" si="1"/>
         <v>73.979649648782214</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B10" s="2">
-        <v>65.3</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="C10" s="7">
-        <v>165292</v>
+        <v>176252</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>258695.90199081166</v>
+        <v>270464.78078078083</v>
       </c>
       <c r="E10" s="13">
         <f t="shared" si="1"/>
         <v>73.979649648782214</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B11" s="2">
-        <v>66.599999999999994</v>
+        <v>68</v>
       </c>
       <c r="C11" s="7">
-        <v>176252</v>
+        <v>184198</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>270464.78078078083</v>
+        <v>276838.75882352941</v>
       </c>
       <c r="E11" s="13">
         <f t="shared" si="1"/>
         <v>73.979649648782214</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B12" s="2">
-        <v>68</v>
+        <v>69.5</v>
       </c>
       <c r="C12" s="7">
-        <v>184198</v>
+        <v>190928</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>276838.75882352941</v>
+        <v>280760.31079136691</v>
       </c>
       <c r="E12" s="13">
         <f t="shared" si="1"/>
         <v>73.979649648782214</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B13" s="2">
-        <v>69.5</v>
+        <v>71</v>
       </c>
       <c r="C13" s="7">
-        <v>190928</v>
+        <v>198399</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>280760.31079136691</v>
+        <v>285582.78591549298</v>
       </c>
       <c r="E13" s="13">
         <f t="shared" si="1"/>
         <v>73.979649648782214</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B14" s="2">
-        <v>71</v>
+        <v>72.3</v>
       </c>
       <c r="C14" s="7">
-        <v>198399</v>
+        <v>206911</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
-        <v>285582.78591549298</v>
+        <v>292480.00276625174</v>
       </c>
       <c r="E14" s="13">
         <f t="shared" si="1"/>
         <v>73.979649648782214</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B15" s="2">
-        <v>72.3</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="C15" s="7">
-        <v>206911</v>
+        <v>212745</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="0"/>
-        <v>292480.00276625174</v>
+        <v>293421.57894736843</v>
       </c>
       <c r="E15" s="13">
-        <f t="shared" si="1"/>
-        <v>73.979649648782214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <f>E$39</f>
+        <v>23.679640284252411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B16" s="2">
-        <v>74.099999999999994</v>
+        <v>76.2</v>
       </c>
       <c r="C16" s="7">
-        <v>212745</v>
+        <v>221310</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
-        <v>293421.57894736843</v>
+        <v>296822.59842519683</v>
       </c>
       <c r="E16" s="13">
-        <f>E$40</f>
-        <v>23.679640284252411</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E16:E24" si="2">E$39</f>
+        <v>23.679640284252411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B17" s="2">
-        <v>76.2</v>
+        <v>78</v>
       </c>
       <c r="C17" s="7">
-        <v>221310</v>
+        <v>229086</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" si="0"/>
-        <v>296822.59842519683</v>
+        <v>300161.40000000002</v>
       </c>
       <c r="E17" s="13">
-        <f t="shared" ref="E17:E25" si="2">E$40</f>
-        <v>23.679640284252411</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>23.679640284252411</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B18" s="2">
-        <v>78</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="C18" s="7">
-        <v>229086</v>
+        <v>238264</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
-        <v>300161.40000000002</v>
+        <v>304763.21401752188</v>
       </c>
       <c r="E18" s="13">
         <f t="shared" si="2"/>
         <v>23.679640284252411</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B19" s="2">
-        <v>79.900000000000006</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="C19" s="7">
-        <v>238264</v>
+        <v>244672</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" si="0"/>
-        <v>304763.21401752188</v>
+        <v>306439.68627450988</v>
       </c>
       <c r="E19" s="13">
         <f t="shared" si="2"/>
         <v>23.679640284252411</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B20" s="2">
-        <v>81.599999999999994</v>
+        <v>82.5</v>
       </c>
       <c r="C20" s="7">
-        <v>244672</v>
+        <v>258758</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>306439.68627450988</v>
+        <v>320546.27393939393</v>
       </c>
       <c r="E20" s="13">
         <f t="shared" si="2"/>
         <v>23.679640284252411</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B21" s="2">
-        <v>82.5</v>
+        <v>84</v>
       </c>
       <c r="C21" s="7">
-        <v>258758</v>
+        <v>269668</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="0"/>
-        <v>320546.27393939393</v>
+        <v>328096.06666666671</v>
       </c>
       <c r="E21" s="13">
         <f t="shared" si="2"/>
         <v>23.679640284252411</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B22" s="2">
-        <v>84</v>
+        <v>85.6</v>
       </c>
       <c r="C22" s="7">
-        <v>269668</v>
+        <v>280518</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
-        <v>328096.06666666671</v>
+        <v>334917.51869158883</v>
       </c>
       <c r="E22" s="13">
         <f t="shared" si="2"/>
         <v>23.679640284252411</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B23" s="2">
-        <v>85.6</v>
+        <v>87.1</v>
       </c>
       <c r="C23" s="7">
-        <v>280518</v>
+        <v>287613</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="0"/>
-        <v>334917.51869158883</v>
+        <v>337474.7256027555</v>
       </c>
       <c r="E23" s="13">
         <f t="shared" si="2"/>
         <v>23.679640284252411</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B24" s="2">
-        <v>87.1</v>
+        <v>90.1</v>
       </c>
       <c r="C24" s="7">
-        <v>287613</v>
+        <v>285562</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="0"/>
-        <v>337474.7256027555</v>
+        <v>323911.61376248614</v>
       </c>
       <c r="E24" s="13">
         <f t="shared" si="2"/>
         <v>23.679640284252411</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B25" s="2">
-        <v>90.1</v>
+        <v>91.2</v>
       </c>
       <c r="C25" s="7">
-        <v>285562</v>
+        <v>290533</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" si="0"/>
-        <v>323911.61376248614</v>
+        <v>325575.35745614039</v>
       </c>
       <c r="E25" s="13">
-        <f t="shared" si="2"/>
-        <v>23.679640284252411</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <f>E$40</f>
+        <v>30.534394727128134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B26" s="2">
-        <v>91.2</v>
+        <v>93.3</v>
       </c>
       <c r="C26" s="7">
-        <v>290533</v>
+        <v>316022</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
-        <v>325575.35745614039</v>
+        <v>346167.72132904612</v>
       </c>
       <c r="E26" s="13">
-        <f>E$41</f>
+        <f t="shared" ref="E26:E29" si="3">E$40</f>
         <v>30.534394727128134</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B27" s="2">
-        <v>93.3</v>
+        <v>95.9</v>
       </c>
       <c r="C27" s="7">
-        <v>316022</v>
+        <v>322251</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" si="0"/>
-        <v>346167.72132904612</v>
+        <v>343420.77372262772</v>
       </c>
       <c r="E27" s="13">
-        <f t="shared" ref="E27:E30" si="3">E$41</f>
+        <f t="shared" si="3"/>
         <v>30.534394727128134</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B28" s="2">
-        <v>95.9</v>
+        <v>98.2</v>
       </c>
       <c r="C28" s="7">
-        <v>322251</v>
+        <v>329803</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" si="0"/>
-        <v>343420.77372262772</v>
+        <v>343236.93075356417</v>
       </c>
       <c r="E28" s="13">
         <f t="shared" si="3"/>
         <v>30.534394727128134</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B29" s="2">
-        <v>98.2</v>
+        <v>99</v>
       </c>
       <c r="C29" s="7">
-        <v>329803</v>
+        <v>338290</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" si="0"/>
-        <v>343236.93075356417</v>
+        <v>349224.62626262626</v>
       </c>
       <c r="E29" s="13">
         <f t="shared" si="3"/>
         <v>30.534394727128134</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B30" s="2">
-        <v>99</v>
+        <v>99.6</v>
       </c>
       <c r="C30" s="7">
-        <v>338290</v>
+        <v>344847</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" si="0"/>
-        <v>349224.62626262626</v>
+        <v>353849.03012048197</v>
       </c>
       <c r="E30" s="13">
-        <f t="shared" si="3"/>
-        <v>30.534394727128134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <f>E$41</f>
+        <v>110.74659345182863</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B31" s="2">
-        <v>99.6</v>
+        <v>100</v>
       </c>
       <c r="C31" s="7">
-        <v>344847</v>
+        <v>353983</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" si="0"/>
-        <v>353849.03012048197</v>
+        <v>361770.62599999999</v>
       </c>
       <c r="E31" s="13">
-        <f>E$42</f>
-        <v>109.19848986571694</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E31:E36" si="4">E$41</f>
+        <v>110.74659345182863</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B32" s="2">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="C32" s="7">
-        <v>353983</v>
+        <v>358674</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" si="0"/>
-        <v>361770.62599999999</v>
+        <v>365468.42273180466</v>
       </c>
       <c r="E32" s="13">
-        <f t="shared" ref="E32:E37" si="4">E$42</f>
-        <v>109.19848986571694</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>110.74659345182863</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B33" s="2">
-        <v>100.3</v>
+        <v>101.4</v>
       </c>
       <c r="C33" s="7">
-        <v>358674</v>
+        <v>368402</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" si="0"/>
-        <v>365468.42273180466</v>
+        <v>371308.52465483238</v>
       </c>
       <c r="E33" s="13">
         <f t="shared" si="4"/>
-        <v>109.19848986571694</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>110.74659345182863</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B34" s="2">
-        <v>101.4</v>
+        <v>102.2</v>
       </c>
       <c r="C34" s="7">
-        <v>368402</v>
+        <v>376526</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" si="0"/>
-        <v>371308.52465483238</v>
+        <v>376526</v>
       </c>
       <c r="E34" s="13">
         <f t="shared" si="4"/>
-        <v>109.19848986571694</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>110.74659345182863</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B35" s="2">
-        <v>102.2</v>
+        <v>103</v>
       </c>
       <c r="C35" s="7">
-        <v>376526</v>
+        <v>388978</v>
       </c>
       <c r="D35" s="4">
         <f t="shared" si="0"/>
-        <v>376526</v>
+        <v>385956.81165048544</v>
       </c>
       <c r="E35" s="13">
         <f t="shared" si="4"/>
-        <v>109.19848986571694</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>110.74659345182863</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B36" s="2">
-        <v>103</v>
+        <v>103.4</v>
       </c>
       <c r="C36" s="7">
-        <v>388978</v>
+        <v>405297</v>
       </c>
       <c r="D36" s="4">
         <f t="shared" si="0"/>
-        <v>385956.81165048544</v>
+        <v>400593.35976789164</v>
       </c>
       <c r="E36" s="13">
         <f t="shared" si="4"/>
-        <v>109.19848986571694</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B37" s="2">
-        <v>103.4</v>
-      </c>
-      <c r="C37" s="7">
-        <v>405297</v>
-      </c>
-      <c r="D37" s="4">
-        <f t="shared" si="0"/>
-        <v>400593.35976789164</v>
-      </c>
-      <c r="E37" s="13">
-        <f t="shared" si="4"/>
-        <v>109.19848986571694</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+        <v>110.74659345182863</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="5">
-        <f>(B37/B7)^(1/(2020-1990))-1</f>
+      <c r="B37" s="5">
+        <f>(B36/B6)^(1/(2020-1990))-1</f>
         <v>1.7359658480863294E-2</v>
       </c>
-      <c r="C38" s="5">
-        <f>(C37/C7)^(1/(2020-1990))-1</f>
+      <c r="C37" s="5">
+        <f>(C36/C6)^(1/(2020-1990))-1</f>
         <v>3.3811414859707734E-2</v>
       </c>
-      <c r="D38" s="6">
-        <f>(D37/D7)^(1/(2020-1990))-1</f>
+      <c r="D37" s="6">
+        <f>(D36/D6)^(1/(2020-1990))-1</f>
         <v>1.617103277262899E-2</v>
       </c>
-      <c r="E38" s="5">
-        <f>(E37/E7)^(1/(2020-1990))-1</f>
-        <v>1.3063835379402366E-2</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="E37" s="5">
+        <f>(E36/E6)^(1/(2020-1990))-1</f>
+        <v>1.3539324279689735E-2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="D38" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D39" s="16" t="s">
+      <c r="E38" s="18">
+        <f>(((1+D$37)*(1+G38))^0.5)/(G38-D$37)</f>
+        <v>73.979649648782214</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="16">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E39" s="18">
+        <f>(((1+D$37)*(1+G39))^0.5)/(G39-D$37)</f>
+        <v>23.679640284252411</v>
+      </c>
+      <c r="F39" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="14">
-        <f>(((1+D$38)*(1+G39))^0.5)/(G39-D$38)</f>
-        <v>73.979649648782214</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="11">
+      <c r="G39" s="16">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E40" s="2">
+        <f>(((1+D$37)*(1+G40))^0.5)/(G40-D$37)</f>
+        <v>30.534394727128134</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="E41" s="2">
+        <f>E42+((1+D$37)/(1+G42))^34.5*(E43+((1+D$37)/(1+G43))^35*E44)</f>
+        <v>110.74659345182863</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="17">
+        <v>2.5388217754396553E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="E42" s="2">
+        <f>((((1+D$37)*(1+G42))^0.5)/(G42-D$37))*(1-((1+D$37)/(1+G42))^35)</f>
+        <v>23.973922797580716</v>
+      </c>
+      <c r="F42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="E43" s="2">
+        <f>((1+D$37)/(G43-D$37))*(1-((1+D$37)/(1+G43))^35)</f>
+        <v>27.697461767284015</v>
+      </c>
+      <c r="F43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="17">
         <v>0.03</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E40" s="14">
-        <f>(((1+D$38)*(1+G40))^0.5)/(G40-D$38)</f>
-        <v>23.679640284252411</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="11">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E41" s="2">
-        <f>(((1+D$38)*(1+G41))^0.5)/(G41-D$38)</f>
-        <v>30.534394727128134</v>
-      </c>
-      <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E42" s="2">
-        <f>E43+((1+D$38)/(1+G43))^35.5*E44+((1+D$38)/(1+G43))^35.5*((1+D$38)/(1+G44))^35.5*E45</f>
-        <v>109.19848986571694</v>
-      </c>
-      <c r="F42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E43" s="2">
-        <f>((((1+D$38)*(1+G43))^0.5)/(G43-D$38))*(1-((1+D$38)/(1+G43))^36)</f>
-        <v>24.413098427325398</v>
-      </c>
-      <c r="F43" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="E44" s="2">
-        <f>((((1+D$38)*(1+G44))^0.5)/(G44-D$38))*(1-((1+D$38)/(1+G44))^36)</f>
-        <v>28.504162086514651</v>
+        <f>(1+D$37)/(G44-D$37)</f>
+        <v>265.39037093569942</v>
       </c>
       <c r="F44" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E45" s="2">
-        <f>((((1+D$38)*(1+G45))^0.5)/(G45-D$38))</f>
-        <v>265.88990081671744</v>
-      </c>
-      <c r="F45" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45">
+        <v>22</v>
+      </c>
+      <c r="G44" s="17">
         <v>0.02</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E46" s="2"/>
-      <c r="G46" s="15"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E45" s="2"/>
+      <c r="G45" s="14"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E47" s="10"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E48" s="10"/>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E49" s="10"/>
-    </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="G50" s="12"/>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G49" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/gis/data/CPI_NPV.xlsx
+++ b/gis/data/CPI_NPV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au687527\GitHub\GreenGDP\gis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E4051D-8B1E-474F-A5E4-24D809B17FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFAA89A-FFF9-4C82-A821-8A2E92DF2E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="0" windowWidth="18630" windowHeight="10080" activeTab="1" xr2:uid="{0BD11075-AC87-43E1-B8DC-B6AD336101C6}"/>
+    <workbookView xWindow="570" yWindow="0" windowWidth="18630" windowHeight="10080" xr2:uid="{0BD11075-AC87-43E1-B8DC-B6AD336101C6}"/>
   </bookViews>
   <sheets>
     <sheet name="CPI_NPV" sheetId="10" r:id="rId1"/>
@@ -490,13 +490,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1325880</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2540</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>433070</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -928,11 +928,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C70FF5-2AE8-414A-B011-32BA6EDEA22C}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1636,6 +1636,48 @@
         <v>110.74659345182863</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <f>calculations!A37</f>
+        <v>2021</v>
+      </c>
+      <c r="B33">
+        <f>calculations!B37</f>
+        <v>105.4</v>
+      </c>
+      <c r="C33">
+        <f>calculations!B36</f>
+        <v>103.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <f>calculations!A38</f>
+        <v>2022</v>
+      </c>
+      <c r="B34">
+        <f>calculations!B38</f>
+        <v>113.5</v>
+      </c>
+      <c r="C34">
+        <f>calculations!B37</f>
+        <v>105.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <f>calculations!A39</f>
+        <v>2023</v>
+      </c>
+      <c r="B35">
+        <f>calculations!B39</f>
+        <v>117.2</v>
+      </c>
+      <c r="C35">
+        <f>calculations!B38</f>
+        <v>113.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1643,14 +1685,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50846CB7-7BD6-4C04-BD98-E23C6BE026DD}">
-  <dimension ref="A3:G49"/>
+  <dimension ref="A3:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B3" sqref="B3"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1705,7 +1747,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="4"/>
       <c r="E5" s="13">
-        <f>E$38</f>
+        <f>E$41</f>
         <v>73.979649648782214</v>
       </c>
     </row>
@@ -1724,7 +1766,7 @@
         <v>247570.8038897893</v>
       </c>
       <c r="E6" s="13">
-        <f>E$38</f>
+        <f>E$41</f>
         <v>73.979649648782214</v>
       </c>
     </row>
@@ -1743,7 +1785,7 @@
         <v>252277.14240506329</v>
       </c>
       <c r="E7" s="13">
-        <f t="shared" ref="E7:E14" si="1">E$38</f>
+        <f t="shared" ref="E7:E14" si="1">E$41</f>
         <v>73.979649648782214</v>
       </c>
     </row>
@@ -1895,7 +1937,7 @@
         <v>293421.57894736843</v>
       </c>
       <c r="E15" s="13">
-        <f>E$39</f>
+        <f>E$42</f>
         <v>23.679640284252411</v>
       </c>
     </row>
@@ -1914,7 +1956,7 @@
         <v>296822.59842519683</v>
       </c>
       <c r="E16" s="13">
-        <f t="shared" ref="E16:E24" si="2">E$39</f>
+        <f t="shared" ref="E16:E24" si="2">E$42</f>
         <v>23.679640284252411</v>
       </c>
     </row>
@@ -2085,7 +2127,7 @@
         <v>325575.35745614039</v>
       </c>
       <c r="E25" s="13">
-        <f>E$40</f>
+        <f>E$43</f>
         <v>30.534394727128134</v>
       </c>
     </row>
@@ -2104,7 +2146,7 @@
         <v>346167.72132904612</v>
       </c>
       <c r="E26" s="13">
-        <f t="shared" ref="E26:E29" si="3">E$40</f>
+        <f t="shared" ref="E26:E29" si="3">E$43</f>
         <v>30.534394727128134</v>
       </c>
     </row>
@@ -2180,7 +2222,7 @@
         <v>353849.03012048197</v>
       </c>
       <c r="E30" s="13">
-        <f>E$41</f>
+        <f>E$44</f>
         <v>110.74659345182863</v>
       </c>
     </row>
@@ -2199,7 +2241,7 @@
         <v>361770.62599999999</v>
       </c>
       <c r="E31" s="13">
-        <f t="shared" ref="E31:E36" si="4">E$41</f>
+        <f t="shared" ref="E31:E36" si="4">E$44</f>
         <v>110.74659345182863</v>
       </c>
     </row>
@@ -2299,131 +2341,155 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B37" s="12">
+        <v>105.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B38" s="12">
+        <v>113.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B39" s="12">
+        <v>117.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B40" s="5">
         <f>(B36/B6)^(1/(2020-1990))-1</f>
         <v>1.7359658480863294E-2</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C40" s="5">
         <f>(C36/C6)^(1/(2020-1990))-1</f>
         <v>3.3811414859707734E-2</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D40" s="6">
         <f>(D36/D6)^(1/(2020-1990))-1</f>
         <v>1.617103277262899E-2</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E40" s="5">
         <f>(E36/E6)^(1/(2020-1990))-1</f>
         <v>1.3539324279689735E-2</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="D38" s="15" t="s">
+    <row r="41" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="D41" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="18">
-        <f>(((1+D$37)*(1+G38))^0.5)/(G38-D$37)</f>
-        <v>73.979649648782214</v>
-      </c>
-      <c r="F38" s="11" t="s">
+      <c r="E41" s="18">
+        <f>(((1+D$40)*(1+G41))^0.5)/(G41-D$40)</f>
+        <v>73.979649648782214</v>
+      </c>
+      <c r="F41" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G41" s="16">
         <v>0.03</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E39" s="18">
-        <f>(((1+D$37)*(1+G39))^0.5)/(G39-D$37)</f>
-        <v>23.679640284252411</v>
-      </c>
-      <c r="F39" s="11" t="s">
+    <row r="42" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E42" s="18">
+        <f>(((1+D$40)*(1+G42))^0.5)/(G42-D$40)</f>
+        <v>23.679640284252411</v>
+      </c>
+      <c r="F42" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G42" s="16">
         <v>0.06</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E40" s="2">
-        <f>(((1+D$37)*(1+G40))^0.5)/(G40-D$37)</f>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E43" s="2">
+        <f>(((1+D$40)*(1+G43))^0.5)/(G43-D$40)</f>
         <v>30.534394727128134</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F43" t="s">
         <v>17</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G43" s="17">
         <v>0.05</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="E41" s="2">
-        <f>E42+((1+D$37)/(1+G42))^34.5*(E43+((1+D$37)/(1+G43))^35*E44)</f>
-        <v>110.74659345182863</v>
-      </c>
-      <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="17">
-        <v>2.5388217754396553E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="E42" s="2">
-        <f>((((1+D$37)*(1+G42))^0.5)/(G42-D$37))*(1-((1+D$37)/(1+G42))^35)</f>
-        <v>23.973922797580716</v>
-      </c>
-      <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" s="17">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="E43" s="2">
-        <f>((1+D$37)/(G43-D$37))*(1-((1+D$37)/(1+G43))^35)</f>
-        <v>27.697461767284015</v>
-      </c>
-      <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" s="17">
-        <v>0.03</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="E44" s="2">
-        <f>(1+D$37)/(G44-D$37)</f>
+        <f>E45+((1+D$40)/(1+G45))^34.5*(E46+((1+D$40)/(1+G46))^35*E47)</f>
+        <v>110.74659345182863</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="17">
+        <v>2.5388217754396553E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="E45" s="2">
+        <f>((((1+D$40)*(1+G45))^0.5)/(G45-D$40))*(1-((1+D$40)/(1+G45))^35)</f>
+        <v>23.973922797580716</v>
+      </c>
+      <c r="F45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="E46" s="2">
+        <f>((1+D$40)/(G46-D$40))*(1-((1+D$40)/(1+G46))^35)</f>
+        <v>27.697461767284015</v>
+      </c>
+      <c r="F46" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="17">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="E47" s="2">
+        <f>(1+D$40)/(G47-D$40)</f>
         <v>265.39037093569942</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F47" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G47" s="17">
         <v>0.02</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E45" s="2"/>
-      <c r="G45" s="14"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E46" s="10"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E47" s="10"/>
-    </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E48" s="10"/>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G49" s="12"/>
+      <c r="E48" s="2"/>
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="G52" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/gis/data/CPI_NPV.xlsx
+++ b/gis/data/CPI_NPV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au687527\GitHub\GreenGDP\gis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFAA89A-FFF9-4C82-A821-8A2E92DF2E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C77E8F2-98EB-4C86-9F1E-9926CDFC2E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="0" windowWidth="18630" windowHeight="10080" xr2:uid="{0BD11075-AC87-43E1-B8DC-B6AD336101C6}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{0BD11075-AC87-43E1-B8DC-B6AD336101C6}"/>
   </bookViews>
   <sheets>
     <sheet name="CPI_NPV" sheetId="10" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>CPI</t>
   </si>
@@ -66,9 +66,6 @@
     <t>r</t>
   </si>
   <si>
-    <t>Net Present Value factor</t>
-  </si>
-  <si>
     <t>Mean real disposable family income 2018-prices</t>
   </si>
   <si>
@@ -84,8 +81,65 @@
     <t>NPV t-1</t>
   </si>
   <si>
-    <r>
-      <t>NV(Δ</t>
+    <t>Δ 2009-2013</t>
+  </si>
+  <si>
+    <t>Δ 1999-2008</t>
+  </si>
+  <si>
+    <t>Δ 1990-1998</t>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>near</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>medium</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>long</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Δ</t>
     </r>
     <r>
       <rPr>
@@ -106,7 +160,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,Δ</t>
+      <t xml:space="preserve"> (years 1-35)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Δ</t>
     </r>
     <r>
       <rPr>
@@ -127,7 +186,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,Δ</t>
+      <t xml:space="preserve"> (years 36-70)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Δ</t>
     </r>
     <r>
       <rPr>
@@ -148,21 +212,37 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>) 2014-2020</t>
+      <t xml:space="preserve"> (years 71-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>∞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
     </r>
   </si>
   <si>
-    <t>Δ 2009-2013</t>
+    <t>Δ 2014-2020</t>
   </si>
   <si>
-    <t>Δ 1999-2008</t>
+    <t>Eternity factor</t>
   </si>
   <si>
-    <t>Δ 1990-1998</t>
-  </si>
-  <si>
-    <r>
-      <t>Δ</t>
+    <r>
+      <t>Δ 2014-2020 = PV(Δ</t>
     </r>
     <r>
       <rPr>
@@ -173,7 +253,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>near</t>
+      <t>n</t>
     </r>
     <r>
       <rPr>
@@ -183,12 +263,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (years 1-35)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Δ</t>
+      <t>,Δ</t>
     </r>
     <r>
       <rPr>
@@ -199,7 +274,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>medium</t>
+      <t>m</t>
     </r>
     <r>
       <rPr>
@@ -209,12 +284,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (years 36-70)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Δ</t>
+      <t>,Δ</t>
     </r>
     <r>
       <rPr>
@@ -225,7 +295,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>long</t>
+      <t>l</t>
     </r>
     <r>
       <rPr>
@@ -235,16 +305,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (years 71-</t>
+      <t xml:space="preserve">), thus, the Net Present Value of </t>
     </r>
     <r>
       <rPr>
+        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>∞</t>
+      <t>X</t>
     </r>
     <r>
       <rPr>
@@ -254,7 +326,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
+      <t xml:space="preserve"> at year </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is:</t>
     </r>
   </si>
 </sst>
@@ -268,7 +361,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +409,14 @@
     </font>
     <font>
       <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -628,6 +729,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>21587</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>199850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C50EA7E-A13F-4B40-A16E-7A1518FA76EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10109200" y="7575550"/>
+          <a:ext cx="4288787" cy="1908000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -930,7 +1075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C70FF5-2AE8-414A-B011-32BA6EDEA22C}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -951,7 +1096,7 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1685,14 +1830,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50846CB7-7BD6-4C04-BD98-E23C6BE026DD}">
-  <dimension ref="A3:G52"/>
+  <dimension ref="A3:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B3" sqref="B3"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1701,14 +1846,15 @@
     <col min="2" max="2" width="8.81640625" customWidth="1"/>
     <col min="3" max="3" width="34.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>2</v>
@@ -1728,13 +1874,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -2264,7 +2410,7 @@
         <v>110.74659345182863</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2017</v>
       </c>
@@ -2283,7 +2429,7 @@
         <v>110.74659345182863</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2018</v>
       </c>
@@ -2302,7 +2448,7 @@
         <v>110.74659345182863</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>2019</v>
       </c>
@@ -2321,7 +2467,7 @@
         <v>110.74659345182863</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2020</v>
       </c>
@@ -2340,7 +2486,7 @@
         <v>110.74659345182863</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2021</v>
       </c>
@@ -2348,7 +2494,7 @@
         <v>105.4</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>2022</v>
       </c>
@@ -2356,7 +2502,7 @@
         <v>113.5</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2023</v>
       </c>
@@ -2364,7 +2510,7 @@
         <v>117.2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>1</v>
       </c>
@@ -2387,95 +2533,107 @@
       <c r="G40" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="I40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="D41" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E41" s="18">
         <f>(((1+D$40)*(1+G41))^0.5)/(G41-D$40)</f>
         <v>73.979649648782214</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G41" s="16">
         <v>0.03</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E42" s="18">
         <f>(((1+D$40)*(1+G42))^0.5)/(G42-D$40)</f>
         <v>23.679640284252411</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G42" s="16">
         <v>0.06</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E43" s="2">
         <f>(((1+D$40)*(1+G43))^0.5)/(G43-D$40)</f>
         <v>30.534394727128134</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G43" s="17">
         <v>0.05</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E44" s="2">
         <f>E45+((1+D$40)/(1+G45))^34.5*(E46+((1+D$40)/(1+G46))^35*E47)</f>
         <v>110.74659345182863</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G44" s="17">
         <v>2.5388217754396553E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="E45" s="2">
         <f>((((1+D$40)*(1+G45))^0.5)/(G45-D$40))*(1-((1+D$40)/(1+G45))^35)</f>
         <v>23.973922797580716</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G45" s="17">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="E46" s="2">
         <f>((1+D$40)/(G46-D$40))*(1-((1+D$40)/(1+G46))^35)</f>
         <v>27.697461767284015</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G46" s="17">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="E47" s="2">
         <f>(1+D$40)/(G47-D$40)</f>
         <v>265.39037093569942</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G47" s="17">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E48" s="2"/>
       <c r="G48" s="14"/>
     </row>
